--- a/biology/Médecine/Shilajit/Shilajit.xlsx
+++ b/biology/Médecine/Shilajit/Shilajit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le shilajit (du sanskrit शिलाजतु, śilājatu[1]) – aussi appelé moumiyo, mu moi, mamie, m’immola (du russe мумиё) – est une sorte de résine épaisse et collante dont la couleur va du blanc au marron foncé (cette dernière étant plus commune) qui se trouve principalement dans l'Himalaya et les montagnes du Tibet, les montagnes du Caucase, les montagnes de l'Altaï, et les montagnes de Gilgit-Baltistan au Pakistan[2],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le shilajit (du sanskrit शिलाजतु, śilājatu) – aussi appelé moumiyo, mu moi, mamie, m’immola (du russe мумиё) – est une sorte de résine épaisse et collante dont la couleur va du blanc au marron foncé (cette dernière étant plus commune) qui se trouve principalement dans l'Himalaya et les montagnes du Tibet, les montagnes du Caucase, les montagnes de l'Altaï, et les montagnes de Gilgit-Baltistan au Pakistan,
 Elle était extraite dans certaines cavités ce qui a longtemps fait pencher pour une origine minérale.
-Sa nature exacte n'est actuellement pas connue mais ne serait pas minérale : on note la présence de vitamines et d'acides aminés, de triterpènes, mais aussi d'acides humiques et de 85 minéraux (ions)[4],[5]. L'hypothèse de l'origine végétale (résine) est la plus probable. On note une certaine corrélation avec la  présence d'Euphorbia royleana[6].
-Une étude de 2012 publiée dans le *Journal of Ethnopharmacology* met en lumière les bienfaits multiples du Shilajit, notamment dans le traitement des symptômes du syndrome de fatigue chronique (SFC). Cette recherche montre que le Shilajit contribue significativement à réduire l'immobilité et à améliorer le comportement d'escalade altérés par le SFC. Il a également été observé que le Shilajit réduit l'anxiété et restaure les niveaux de corticostérone plasmatique ainsi que le poids des glandes surrénales. Le Shilajit se présente comme une option potentiellement sans danger et avantageuse pour le traitement de multiples troubles de santé[7].
+Sa nature exacte n'est actuellement pas connue mais ne serait pas minérale : on note la présence de vitamines et d'acides aminés, de triterpènes, mais aussi d'acides humiques et de 85 minéraux (ions),. L'hypothèse de l'origine végétale (résine) est la plus probable. On note une certaine corrélation avec la  présence d'Euphorbia royleana.
+Une étude de 2012 publiée dans le *Journal of Ethnopharmacology* met en lumière les bienfaits multiples du Shilajit, notamment dans le traitement des symptômes du syndrome de fatigue chronique (SFC). Cette recherche montre que le Shilajit contribue significativement à réduire l'immobilité et à améliorer le comportement d'escalade altérés par le SFC. Il a également été observé que le Shilajit réduit l'anxiété et restaure les niveaux de corticostérone plasmatique ainsi que le poids des glandes surrénales. Le Shilajit se présente comme une option potentiellement sans danger et avantageuse pour le traitement de multiples troubles de santé.
 </t>
         </is>
       </c>
